--- a/business/stock details22.xlsx
+++ b/business/stock details22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="14295" windowHeight="4950"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="14295" windowHeight="4950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="271">
   <si>
     <t>s.no</t>
   </si>
@@ -736,19 +736,128 @@
   </si>
   <si>
     <t>selling price</t>
+  </si>
+  <si>
+    <t>3gb/32gb</t>
+  </si>
+  <si>
+    <t>86253704010-8092</t>
+  </si>
+  <si>
+    <t>86253704289-2172</t>
+  </si>
+  <si>
+    <t>86579804344-2873</t>
+  </si>
+  <si>
+    <t>86579804344-1156</t>
+  </si>
+  <si>
+    <t>86579804341-5556</t>
+  </si>
+  <si>
+    <t>86110204230-8520</t>
+  </si>
+  <si>
+    <t>86110204231-0435</t>
+  </si>
+  <si>
+    <t>86110204229-8051</t>
+  </si>
+  <si>
+    <t>86174304033-5773</t>
+  </si>
+  <si>
+    <t>mohan poorvika</t>
+  </si>
+  <si>
+    <t>redmi 6a</t>
+  </si>
+  <si>
+    <t>2gb/16gb</t>
+  </si>
+  <si>
+    <t>86579804387-7136</t>
+  </si>
+  <si>
+    <t>86579804448-7810</t>
+  </si>
+  <si>
+    <t>86564304721-8160</t>
+  </si>
+  <si>
+    <t>86110204639-3296</t>
+  </si>
+  <si>
+    <t>86564304723-1189</t>
+  </si>
+  <si>
+    <t>86110204320-5253</t>
+  </si>
+  <si>
+    <t>86564304714-0620</t>
+  </si>
+  <si>
+    <t>86110204646-4055</t>
+  </si>
+  <si>
+    <t>86110204317-6405</t>
+  </si>
+  <si>
+    <t>86579804448-7570</t>
+  </si>
+  <si>
+    <t>86564304720-5480</t>
+  </si>
+  <si>
+    <t>86564304721-8095</t>
+  </si>
+  <si>
+    <t>86110204271-9031</t>
+  </si>
+  <si>
+    <t>86110204269-0422</t>
+  </si>
+  <si>
+    <t>86110204271-6680</t>
+  </si>
+  <si>
+    <t>86174304493-8895</t>
+  </si>
+  <si>
+    <t>86174304048-4035</t>
+  </si>
+  <si>
+    <t>86174304501-5875</t>
+  </si>
+  <si>
+    <t>86174304499-3031</t>
+  </si>
+  <si>
+    <t>86579804388-2490</t>
+  </si>
+  <si>
+    <t>ikram.mnnit09@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -831,10 +940,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -855,12 +968,15 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1158,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,6 +1287,7 @@
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
@@ -3055,7 +3172,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>213</v>
@@ -3075,7 +3192,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>216</v>
@@ -3092,7 +3209,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>217</v>
@@ -3109,7 +3226,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>218</v>
@@ -3126,7 +3243,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>219</v>
@@ -3143,7 +3260,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>220</v>
@@ -3160,7 +3277,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>222</v>
@@ -3175,24 +3292,580 @@
         <v>223</v>
       </c>
     </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" t="s">
+        <v>247</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" t="s">
+        <v>247</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" t="s">
+        <v>247</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>250</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C107" t="s">
+        <v>251</v>
+      </c>
+      <c r="D107" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C108" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C109" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C111" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" t="s">
+        <v>247</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C112" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C113" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C114" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" t="s">
+        <v>247</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" t="s">
+        <v>247</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C117" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" t="s">
+        <v>247</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C118" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" t="s">
+        <v>247</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C119" t="s">
+        <v>263</v>
+      </c>
+      <c r="D119" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" t="s">
+        <v>247</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C123" t="s">
+        <v>267</v>
+      </c>
+      <c r="D123" t="s">
+        <v>247</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C125" t="s">
+        <v>269</v>
+      </c>
+      <c r="D125" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G125" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3203,7 +3876,7 @@
       <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -3223,7 +3896,7 @@
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="23">
         <v>6300</v>
       </c>
       <c r="D2">
@@ -3238,7 +3911,7 @@
       <c r="B3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="23">
         <v>7300</v>
       </c>
       <c r="D3">
@@ -3253,7 +3926,7 @@
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="23">
         <v>10000</v>
       </c>
       <c r="D4">
@@ -3268,7 +3941,7 @@
       <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="23">
         <v>480</v>
       </c>
       <c r="D5">
@@ -3299,7 +3972,7 @@
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="23">
         <v>6300</v>
       </c>
       <c r="D8">
@@ -3314,7 +3987,7 @@
       <c r="B9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="23">
         <v>8300</v>
       </c>
       <c r="D9">
@@ -3329,7 +4002,7 @@
       <c r="B10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="23">
         <v>13000</v>
       </c>
       <c r="D10">
@@ -3344,7 +4017,7 @@
       <c r="B11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="23">
         <v>500</v>
       </c>
       <c r="D11">
@@ -3372,7 +4045,7 @@
       <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="23">
         <v>6300</v>
       </c>
       <c r="D13">
@@ -3387,7 +4060,7 @@
       <c r="B14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="23">
         <v>6300</v>
       </c>
       <c r="D14">
@@ -3402,7 +4075,7 @@
       <c r="B15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="23">
         <v>480</v>
       </c>
       <c r="D15">
@@ -3430,7 +4103,7 @@
       <c r="B17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="23">
         <v>6300</v>
       </c>
       <c r="D17">
@@ -3445,7 +4118,7 @@
       <c r="B18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="23">
         <v>13000</v>
       </c>
       <c r="D18">
@@ -3469,7 +4142,7 @@
       <c r="B19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="23">
         <v>11000</v>
       </c>
       <c r="D19">
@@ -3493,7 +4166,7 @@
       <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="23">
         <v>8300</v>
       </c>
       <c r="D20">
@@ -3517,7 +4190,7 @@
       <c r="B21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="23">
         <v>520</v>
       </c>
       <c r="D21">
@@ -3562,7 +4235,7 @@
       <c r="B23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="23">
         <v>6300</v>
       </c>
       <c r="D23">
@@ -3577,7 +4250,7 @@
       <c r="B24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="23">
         <v>13000</v>
       </c>
       <c r="D24">
@@ -3592,7 +4265,7 @@
       <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="23">
         <v>480</v>
       </c>
       <c r="D25">
@@ -3619,7 +4292,7 @@
       <c r="B27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="23">
         <v>12999</v>
       </c>
       <c r="D27">
@@ -3634,7 +4307,7 @@
       <c r="B28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="23">
         <v>10999</v>
       </c>
       <c r="D28">
@@ -3649,7 +4322,7 @@
       <c r="B29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="23">
         <v>9999</v>
       </c>
       <c r="D29">
@@ -3664,7 +4337,7 @@
       <c r="B30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="24">
         <v>12999</v>
       </c>
       <c r="D30">
@@ -3679,7 +4352,7 @@
       <c r="B31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="24">
         <v>700</v>
       </c>
       <c r="D31">
@@ -3706,7 +4379,7 @@
       <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="23">
         <v>6300</v>
       </c>
       <c r="D33">
@@ -3721,7 +4394,7 @@
       <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="23">
         <v>700</v>
       </c>
       <c r="D34">
@@ -3748,7 +4421,7 @@
       <c r="B36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="23">
         <v>13000</v>
       </c>
       <c r="D36">
@@ -3763,7 +4436,7 @@
       <c r="B37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="23">
         <v>10000</v>
       </c>
       <c r="D37">
@@ -3778,7 +4451,7 @@
       <c r="B38" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="23">
         <v>15990</v>
       </c>
       <c r="D38">
@@ -3793,7 +4466,7 @@
       <c r="B39" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="23">
         <v>11000</v>
       </c>
       <c r="D39">
@@ -3808,7 +4481,7 @@
       <c r="B40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="23">
         <v>600</v>
       </c>
       <c r="D40">
@@ -3835,7 +4508,7 @@
       <c r="B42" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="23">
         <v>6300</v>
       </c>
       <c r="D42">
@@ -3850,7 +4523,7 @@
       <c r="B43" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="23">
         <v>8000</v>
       </c>
       <c r="D43">
@@ -3865,7 +4538,7 @@
       <c r="B44" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="23">
         <v>500</v>
       </c>
       <c r="D44">
@@ -3891,7 +4564,7 @@
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="23">
         <v>11000</v>
       </c>
       <c r="D47">
@@ -3917,7 +4590,7 @@
       <c r="B50" t="s">
         <v>55</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="23">
         <v>10000</v>
       </c>
       <c r="D50">
@@ -3932,7 +4605,7 @@
       <c r="B51" t="s">
         <v>171</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="23">
         <v>11985</v>
       </c>
       <c r="D51">
@@ -3947,7 +4620,7 @@
       <c r="B52" t="s">
         <v>172</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="23">
         <v>9000</v>
       </c>
       <c r="D52">
@@ -3974,7 +4647,7 @@
       <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="23">
         <v>6300</v>
       </c>
       <c r="D55">
@@ -3989,14 +4662,14 @@
       <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="23">
         <v>8000</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56">
-        <f t="shared" ref="E56:E60" si="6">C56*D56</f>
+        <f t="shared" ref="E56:E59" si="6">C56*D56</f>
         <v>24000</v>
       </c>
     </row>
@@ -4004,7 +4677,7 @@
       <c r="B57" t="s">
         <v>183</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="23">
         <v>8999</v>
       </c>
       <c r="D57">
@@ -4019,7 +4692,7 @@
       <c r="B58" t="s">
         <v>182</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="23">
         <v>11000</v>
       </c>
       <c r="D58">
@@ -4034,7 +4707,7 @@
       <c r="B59" t="s">
         <v>182</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="23">
         <v>13000</v>
       </c>
       <c r="D59">
@@ -4049,7 +4722,7 @@
       <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="23">
         <v>1000</v>
       </c>
       <c r="D60">
@@ -4076,7 +4749,7 @@
       <c r="B63" t="s">
         <v>184</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="23">
         <v>13990</v>
       </c>
       <c r="D63">
@@ -4091,7 +4764,7 @@
       <c r="B64" t="s">
         <v>144</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="23">
         <v>15990</v>
       </c>
       <c r="D64">
@@ -4106,7 +4779,7 @@
       <c r="B65" t="s">
         <v>185</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="23">
         <v>12000</v>
       </c>
       <c r="D65">
@@ -4121,7 +4794,7 @@
       <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="23">
         <v>13000</v>
       </c>
       <c r="D66">
@@ -4136,7 +4809,7 @@
       <c r="B67" t="s">
         <v>55</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="23">
         <v>10000</v>
       </c>
       <c r="D67">
@@ -4151,7 +4824,7 @@
       <c r="B68" t="s">
         <v>186</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="23">
         <v>12999</v>
       </c>
       <c r="D68">
@@ -4166,7 +4839,7 @@
       <c r="B69" t="s">
         <v>56</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="23">
         <v>1000</v>
       </c>
       <c r="D69">
@@ -4193,7 +4866,7 @@
       <c r="B72" t="s">
         <v>200</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="23">
         <v>10000</v>
       </c>
       <c r="D72">
@@ -4208,7 +4881,7 @@
       <c r="B73" t="s">
         <v>55</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="23">
         <v>10000</v>
       </c>
       <c r="D73">
@@ -4223,7 +4896,7 @@
       <c r="B74" t="s">
         <v>201</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="23">
         <v>14000</v>
       </c>
       <c r="D74">
@@ -4238,7 +4911,7 @@
       <c r="B75" t="s">
         <v>202</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="23">
         <v>13000</v>
       </c>
       <c r="D75">
@@ -4265,7 +4938,7 @@
       <c r="B78" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="23">
         <v>11000</v>
       </c>
       <c r="D78">
@@ -4276,16 +4949,12 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="C79" s="20"/>
       <c r="E79" s="6">
         <v>11000</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="C80" s="20"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="11" t="s">
@@ -4294,7 +4963,7 @@
       <c r="B81" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="23">
         <v>11000</v>
       </c>
       <c r="D81">
@@ -4305,16 +4974,12 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="C82" s="20"/>
       <c r="E82" s="6">
         <v>11000</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="C83" s="20"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
@@ -4323,7 +4988,7 @@
       <c r="B84" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="23">
         <v>11000</v>
       </c>
       <c r="D84">
@@ -4337,7 +5002,7 @@
       <c r="B85" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="23">
         <v>11000</v>
       </c>
       <c r="D85">
@@ -4348,7 +5013,6 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="C86" s="20"/>
       <c r="E86" s="6">
         <v>22000</v>
       </c>
@@ -4356,14 +5020,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="C87" s="20"/>
-    </row>
     <row r="88" spans="1:7">
+      <c r="A88" s="4">
+        <v>43428</v>
+      </c>
       <c r="B88" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="24">
         <v>10000</v>
       </c>
       <c r="D88">
@@ -4378,7 +5042,7 @@
       <c r="B89" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="24">
         <v>11000</v>
       </c>
       <c r="D89">
@@ -4393,7 +5057,7 @@
       <c r="B90" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="24">
         <v>13000</v>
       </c>
       <c r="D90">
@@ -4408,7 +5072,7 @@
       <c r="B91" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="24">
         <v>13000</v>
       </c>
       <c r="D91">
@@ -4423,7 +5087,7 @@
       <c r="B92" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="20">
+      <c r="C92" s="23">
         <v>8300</v>
       </c>
       <c r="D92">
@@ -4438,7 +5102,7 @@
       <c r="B93" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="23">
         <v>9500</v>
       </c>
       <c r="D93">
@@ -4453,38 +5117,111 @@
       <c r="B94" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="20">
-        <v>0</v>
+      <c r="C94" s="23">
+        <v>900</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="C95" s="20"/>
       <c r="E95" s="6">
         <f>SUM(E88:E94)</f>
-        <v>75800</v>
+        <v>76700</v>
       </c>
       <c r="G95">
         <v>7</v>
       </c>
     </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="4">
+        <v>43428</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="23">
+        <v>8500</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <f>C97*D97</f>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="B98" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="23">
+        <v>6800</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98:E99" si="10">C98*D98</f>
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="B99" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="23">
+        <v>900</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="B100" s="11"/>
+      <c r="E100" s="6">
+        <f>SUM(E97:E99)</f>
+        <v>74000</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4914,106 +5651,126 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="B19" s="9">
-        <f>SUM(B2:B18)</f>
-        <v>899496</v>
-      </c>
-      <c r="C19" s="13">
-        <f>SUM(C2:C8)</f>
-        <v>654225</v>
-      </c>
-      <c r="E19" s="8">
-        <f>B19-C19 +F2</f>
-        <v>315271</v>
+      <c r="A19" s="4">
+        <v>43428</v>
+      </c>
+      <c r="B19">
+        <v>76700</v>
       </c>
     </row>
     <row r="20" spans="1:16">
+      <c r="A20" s="4">
+        <v>43428</v>
+      </c>
+      <c r="B20">
+        <v>74000</v>
+      </c>
       <c r="M20" s="16"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21">
+        <v>17000</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22">
+      <c r="B22" s="9">
+        <f>SUM(B2:B21)</f>
+        <v>1067196</v>
+      </c>
+      <c r="C22" s="13">
+        <f>SUM(C2:C8)</f>
+        <v>654225</v>
+      </c>
+      <c r="E22" s="8">
+        <f>B22-C22 +F2</f>
+        <v>482971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>6300</v>
       </c>
-      <c r="B22">
+      <c r="B28">
         <v>8</v>
       </c>
-      <c r="C22">
-        <f>A22*B22</f>
+      <c r="C28">
+        <f>A28*B28</f>
         <v>50400</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23">
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>8000</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23:C27" si="0">A23*B23</f>
+      <c r="C29">
+        <f t="shared" ref="C29:C33" si="0">A29*B29</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24">
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>9000</v>
       </c>
-      <c r="B24">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25">
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>11000</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26">
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>15990</v>
       </c>
-      <c r="B26">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>15990</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27">
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>11000</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="C28">
-        <f>SUM(C22:C27)</f>
+    <row r="34" spans="1:3">
+      <c r="C34">
+        <f>SUM(C28:C33)</f>
         <v>135390</v>
       </c>
     </row>
@@ -5027,7 +5784,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5045,30 +5802,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5309,7 +6066,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6752,7 +7509,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7428,7 +8185,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/business/stock details22.xlsx
+++ b/business/stock details22.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="14295" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="14295" windowHeight="4890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">card!$A$1:$P$20</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="288">
   <si>
     <t>s.no</t>
   </si>
@@ -312,9 +312,6 @@
     <t>6a</t>
   </si>
   <si>
-    <t>payment against rahul card</t>
-  </si>
-  <si>
     <t>rahul card</t>
   </si>
   <si>
@@ -838,13 +835,67 @@
   </si>
   <si>
     <t>ikram.mnnit09@gmail.com</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>amaoz</t>
+  </si>
+  <si>
+    <t>flipkart'</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>net amount</t>
+  </si>
+  <si>
+    <t>ramarks</t>
+  </si>
+  <si>
+    <t>2-nov to 15 nov</t>
+  </si>
+  <si>
+    <t>22nov to 18 dec</t>
+  </si>
+  <si>
+    <t>cash at home</t>
+  </si>
+  <si>
+    <t>cash transfer</t>
+  </si>
+  <si>
+    <t>amazon y2 5pc</t>
+  </si>
+  <si>
+    <t>6a 12pc</t>
+  </si>
+  <si>
+    <t>self 7pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debit </t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>tufail bhai</t>
+  </si>
+  <si>
+    <t>1252996 + 70000 - 825225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,7 +998,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -974,6 +1025,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1064,6 +1119,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1098,6 +1154,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1273,14 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1292,7 +1349,7 @@
     <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1337,7 +1394,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1360,7 +1417,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1389,7 +1446,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1418,7 +1475,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1447,7 +1504,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1476,7 +1533,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1506,7 +1563,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1539,7 +1596,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1569,7 +1626,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1596,7 +1653,7 @@
         <v>358000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1619,7 +1676,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1642,7 +1699,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1665,7 +1722,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1688,7 +1745,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1711,7 +1768,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1737,7 +1794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1763,7 +1820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1789,7 +1846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1812,7 +1869,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1835,7 +1892,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1858,7 +1915,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1881,7 +1938,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1907,7 +1964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1930,7 +1987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1950,7 +2007,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1970,7 +2027,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1990,7 +2047,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2010,7 +2067,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2030,7 +2087,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2053,7 +2110,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2076,7 +2133,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2099,7 +2156,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2122,7 +2179,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2145,7 +2202,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2171,7 +2228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2197,7 +2254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2223,7 +2280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2249,7 +2306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2257,7 +2314,7 @@
         <v>43372</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
         <v>36</v>
@@ -2272,7 +2329,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2280,7 +2337,7 @@
         <v>43372</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -2295,7 +2352,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2303,7 +2360,7 @@
         <v>43372</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>36</v>
@@ -2318,7 +2375,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2326,7 +2383,7 @@
         <v>43372</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -2341,7 +2398,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2349,7 +2406,7 @@
         <v>43372</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>36</v>
@@ -2364,7 +2421,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2372,7 +2429,7 @@
         <v>43380</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
         <v>36</v>
@@ -2387,7 +2444,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2395,7 +2452,7 @@
         <v>43380</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -2410,7 +2467,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2418,7 +2475,7 @@
         <v>43380</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -2433,7 +2490,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2441,7 +2498,7 @@
         <v>43380</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -2456,7 +2513,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2464,7 +2521,7 @@
         <v>43380</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -2479,7 +2536,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2487,7 +2544,7 @@
         <v>43380</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>36</v>
@@ -2502,7 +2559,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2510,7 +2567,7 @@
         <v>43380</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
         <v>36</v>
@@ -2525,10 +2582,10 @@
         <v>6300</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2536,7 +2593,7 @@
         <v>43380</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>36</v>
@@ -2551,16 +2608,16 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>30</v>
@@ -2569,16 +2626,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -2587,16 +2644,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>30</v>
@@ -2605,16 +2662,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>30</v>
@@ -2623,16 +2680,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>13</v>
@@ -2641,15 +2698,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>13</v>
@@ -2658,7 +2715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2666,7 +2723,7 @@
         <v>43393</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>36</v>
@@ -2681,12 +2738,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
         <v>36</v>
@@ -2701,12 +2758,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>36</v>
@@ -2721,12 +2778,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
         <v>36</v>
@@ -2741,12 +2798,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
         <v>36</v>
@@ -2761,12 +2818,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
         <v>36</v>
@@ -2781,12 +2838,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
         <v>36</v>
@@ -2801,12 +2858,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
         <v>36</v>
@@ -2821,15 +2878,15 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>29</v>
@@ -2838,15 +2895,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>29</v>
@@ -2855,15 +2912,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>13</v>
@@ -2872,15 +2929,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>13</v>
@@ -2889,15 +2946,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>13</v>
@@ -2906,32 +2963,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>30</v>
@@ -2940,15 +2997,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>30</v>
@@ -2957,12 +3014,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>29</v>
@@ -2971,12 +3028,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>29</v>
@@ -2985,12 +3042,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>29</v>
@@ -2999,113 +3056,113 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>9</v>
@@ -3114,12 +3171,12 @@
         <v>8639</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>13</v>
@@ -3128,12 +3185,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>13</v>
@@ -3142,12 +3199,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>30</v>
@@ -3156,12 +3213,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>30</v>
@@ -3170,35 +3227,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" t="s">
         <v>213</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="D90" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>30</v>
@@ -3207,15 +3264,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>30</v>
@@ -3224,15 +3281,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>30</v>
@@ -3241,228 +3298,228 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D99" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="F99" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D100" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="F100" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="F101" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D102" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="F102" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="F103" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D104" t="s">
+        <v>246</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="F104" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" t="s">
         <v>246</v>
-      </c>
-      <c r="D105" t="s">
-        <v>247</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
         <v>32</v>
       </c>
       <c r="E106" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3470,19 +3527,19 @@
         <v>43433</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D107" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="F107" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3490,19 +3547,19 @@
         <v>43433</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D108" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="F108" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3510,19 +3567,19 @@
         <v>43433</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D109" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="F109" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3530,19 +3587,19 @@
         <v>43433</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D110" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="F110" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3550,19 +3607,19 @@
         <v>43433</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D111" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="F111" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3570,19 +3627,19 @@
         <v>43433</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D112" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="F112" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3590,19 +3647,19 @@
         <v>43433</v>
       </c>
       <c r="C113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="F113" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3610,19 +3667,19 @@
         <v>43433</v>
       </c>
       <c r="C114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D114" t="s">
+        <v>246</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="F114" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3630,19 +3687,19 @@
         <v>43433</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="F115" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3650,19 +3707,19 @@
         <v>43433</v>
       </c>
       <c r="C116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="F116" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3670,19 +3727,19 @@
         <v>43433</v>
       </c>
       <c r="C117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="F117" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3690,19 +3747,19 @@
         <v>43433</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="F118" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3710,19 +3767,19 @@
         <v>43433</v>
       </c>
       <c r="C119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="F119" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3730,19 +3787,19 @@
         <v>43433</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="F120" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3750,19 +3807,19 @@
         <v>43433</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3770,19 +3827,19 @@
         <v>43433</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3790,19 +3847,19 @@
         <v>43433</v>
       </c>
       <c r="C123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3810,19 +3867,19 @@
         <v>43433</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3830,19 +3887,19 @@
         <v>43433</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D125" t="s">
         <v>32</v>
       </c>
       <c r="E125" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="G125" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3854,14 +3911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -3869,7 +3926,7 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -3886,10 +3943,10 @@
         <v>51</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43346</v>
       </c>
@@ -3907,7 +3964,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>54</v>
       </c>
@@ -3922,7 +3979,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
@@ -3937,7 +3994,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
@@ -3952,7 +4009,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="E6" s="5">
         <f>SUM(E2:E5)</f>
@@ -3962,10 +4019,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43360</v>
       </c>
@@ -3983,7 +4040,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>57</v>
       </c>
@@ -3998,7 +4055,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>91</v>
       </c>
@@ -4013,7 +4070,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>56</v>
       </c>
@@ -4028,7 +4085,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="E12" s="5">
         <f>SUM(E8:E11)</f>
@@ -4038,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43365</v>
       </c>
@@ -4056,7 +4113,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>52</v>
       </c>
@@ -4071,7 +4128,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>56</v>
       </c>
@@ -4086,7 +4143,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="E16" s="5">
         <f>SUM(E13:E15)</f>
@@ -4096,7 +4153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43372</v>
       </c>
@@ -4114,7 +4171,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>91</v>
       </c>
@@ -4138,7 +4195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>92</v>
       </c>
@@ -4162,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
@@ -4186,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>56</v>
       </c>
@@ -4210,7 +4267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" s="5">
         <f>SUM(E17:E21)</f>
         <v>64720</v>
@@ -4228,7 +4285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43372</v>
       </c>
@@ -4246,7 +4303,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>93</v>
       </c>
@@ -4261,7 +4318,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
@@ -4276,7 +4333,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="5">
         <f>SUM(E23:E25)</f>
         <v>51280</v>
@@ -4285,7 +4342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43390</v>
       </c>
@@ -4303,7 +4360,7 @@
         <v>25998</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>91</v>
       </c>
@@ -4318,7 +4375,7 @@
         <v>21998</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>55</v>
       </c>
@@ -4333,9 +4390,9 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="24">
         <v>12999</v>
@@ -4348,7 +4405,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>56</v>
       </c>
@@ -4363,7 +4420,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" s="5">
         <f>SUM(E27:E31)</f>
         <v>71694</v>
@@ -4372,7 +4429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43390</v>
       </c>
@@ -4390,7 +4447,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>56</v>
       </c>
@@ -4405,7 +4462,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" s="5">
         <f>SUM(E33:E34)</f>
         <v>63700</v>
@@ -4414,12 +4471,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43397</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="23">
         <v>13000</v>
@@ -4432,7 +4489,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>55</v>
       </c>
@@ -4447,9 +4504,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="23">
         <v>15990</v>
@@ -4462,7 +4519,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>92</v>
       </c>
@@ -4477,7 +4534,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>56</v>
       </c>
@@ -4491,7 +4548,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="E41" s="5">
         <f>SUM(E36:E40)</f>
@@ -4501,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43397</v>
       </c>
@@ -4519,9 +4576,9 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C43" s="23">
         <v>8000</v>
@@ -4534,7 +4591,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>56</v>
       </c>
@@ -4548,7 +4605,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E45" s="5">
         <f>SUM(E42:E44)</f>
         <v>66900</v>
@@ -4557,12 +4614,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="23">
         <v>11000</v>
@@ -4575,7 +4632,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E48" s="5">
         <v>22000</v>
       </c>
@@ -4583,9 +4640,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -4601,9 +4658,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="23">
         <v>11985</v>
@@ -4616,9 +4673,9 @@
         <v>11985</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="23">
         <v>9000</v>
@@ -4631,7 +4688,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E53" s="5">
         <f>SUM(E50:E52)</f>
         <v>30985</v>
@@ -4640,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>43403</v>
       </c>
@@ -4658,7 +4715,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>57</v>
       </c>
@@ -4673,9 +4730,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="23">
         <v>8999</v>
@@ -4688,9 +4745,9 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="23">
         <v>11000</v>
@@ -4703,9 +4760,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="23">
         <v>13000</v>
@@ -4718,7 +4775,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>56</v>
       </c>
@@ -4733,7 +4790,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" s="5">
         <f>SUM(E55:E60)</f>
         <v>89499</v>
@@ -4742,12 +4799,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>43403</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="23">
         <v>13990</v>
@@ -4760,9 +4817,9 @@
         <v>27980</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="23">
         <v>15990</v>
@@ -4775,9 +4832,9 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65" s="23">
         <v>12000</v>
@@ -4790,9 +4847,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="23">
         <v>13000</v>
@@ -4805,7 +4862,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>55</v>
       </c>
@@ -4820,9 +4877,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C68" s="23">
         <v>12999</v>
@@ -4835,7 +4892,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>56</v>
       </c>
@@ -4850,7 +4907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E70" s="5">
         <f>SUM(E63:E69)</f>
         <v>104969</v>
@@ -4859,12 +4916,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C72" s="23">
         <v>10000</v>
@@ -4877,7 +4934,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>55</v>
       </c>
@@ -4892,9 +4949,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" s="23">
         <v>14000</v>
@@ -4907,9 +4964,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C75" s="23">
         <v>13000</v>
@@ -4922,7 +4979,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E76" s="5">
         <f>SUM(E72:E75)</f>
         <v>57000</v>
@@ -4931,12 +4988,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
         <v>224</v>
-      </c>
-      <c r="B78" t="s">
-        <v>225</v>
       </c>
       <c r="C78" s="23">
         <v>11000</v>
@@ -4948,7 +5005,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E79" s="6">
         <v>11000</v>
       </c>
@@ -4956,12 +5013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="C81" s="23">
         <v>11000</v>
@@ -4973,7 +5030,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
         <v>11000</v>
       </c>
@@ -4981,12 +5038,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" t="s">
         <v>224</v>
-      </c>
-      <c r="B84" t="s">
-        <v>225</v>
       </c>
       <c r="C84" s="23">
         <v>11000</v>
@@ -4998,9 +5055,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="23">
         <v>11000</v>
@@ -5012,7 +5069,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E86" s="6">
         <v>22000</v>
       </c>
@@ -5020,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43428</v>
       </c>
@@ -5038,7 +5095,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>92</v>
       </c>
@@ -5053,7 +5110,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>91</v>
       </c>
@@ -5068,9 +5125,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C91" s="24">
         <v>13000</v>
@@ -5083,7 +5140,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>57</v>
       </c>
@@ -5098,9 +5155,9 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C93" s="23">
         <v>9500</v>
@@ -5113,7 +5170,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>56</v>
       </c>
@@ -5128,7 +5185,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E95" s="6">
         <f>SUM(E88:E94)</f>
         <v>76700</v>
@@ -5137,7 +5194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>43428</v>
       </c>
@@ -5155,9 +5212,9 @@
         <v>25500</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" s="23">
         <v>6800</v>
@@ -5170,7 +5227,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" s="23" t="s">
         <v>56</v>
       </c>
@@ -5185,7 +5242,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="E100" s="6">
         <f>SUM(E97:E99)</f>
@@ -5195,20 +5252,145 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="B101" s="11"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="B105" s="11"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="24">
+        <v>8500</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <f>C102*D102</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="6">
+        <v>17000</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="24">
+        <v>10000</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <f>C105*D105</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="11"/>
+      <c r="E106" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="23">
+        <v>6800</v>
+      </c>
+      <c r="D108">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E108:E109" si="11">C108*D108</f>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="23">
+        <v>1200</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E110" s="6">
+        <f>SUM(E108:E109)</f>
+        <v>82800</v>
+      </c>
+      <c r="G110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="23">
+        <v>8600</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112:E113" si="12">C112*D112</f>
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="23">
+        <v>6800</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="12"/>
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E114" s="6">
+        <f>SUM(E112:E113)</f>
+        <v>53000</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5217,23 +5399,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21.75" customHeight="1">
+    <row r="1" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -5250,40 +5442,55 @@
         <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="5">
-        <v>20000</v>
-      </c>
-      <c r="O1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>204</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="O1" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43346</v>
       </c>
@@ -5293,32 +5500,34 @@
       <c r="C2">
         <v>2000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>70000</v>
       </c>
-      <c r="L2" s="4">
-        <v>43371</v>
-      </c>
-      <c r="M2">
-        <v>130000</v>
-      </c>
-      <c r="O2">
-        <v>120000</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="H2" s="26">
+        <v>43426</v>
+      </c>
+      <c r="I2" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5">
+        <v>20000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>203</v>
+      </c>
+      <c r="S2" s="4">
         <v>43406</v>
-      </c>
-      <c r="R2">
-        <v>90000</v>
       </c>
       <c r="T2">
         <v>90000</v>
       </c>
-      <c r="U2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43360</v>
       </c>
@@ -5328,29 +5537,28 @@
       <c r="C3">
         <v>10000</v>
       </c>
-      <c r="L3" s="4">
-        <v>43372</v>
-      </c>
-      <c r="M3">
-        <v>100000</v>
+      <c r="H3" s="26">
+        <v>43426</v>
+      </c>
+      <c r="I3" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="4">
+        <v>43371</v>
       </c>
       <c r="O3">
-        <v>100000</v>
-      </c>
-      <c r="Q3" s="4">
+        <v>130000</v>
+      </c>
+      <c r="S3" s="4">
         <v>43407</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>50000</v>
       </c>
-      <c r="T3">
-        <v>90000</v>
-      </c>
-      <c r="U3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43365</v>
       </c>
@@ -5360,27 +5568,28 @@
       <c r="C4">
         <v>22000</v>
       </c>
-      <c r="L4" s="4">
-        <v>43374</v>
-      </c>
-      <c r="M4">
-        <v>30000</v>
+      <c r="H4" s="26">
+        <v>43426</v>
+      </c>
+      <c r="I4" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="4">
+        <v>43372</v>
       </c>
       <c r="O4">
-        <v>70000</v>
-      </c>
-      <c r="Q4" s="4">
+        <v>100000</v>
+      </c>
+      <c r="S4" s="4">
         <v>43408</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>2000</v>
       </c>
-      <c r="T4" s="5">
-        <f>SUM(T2:T3)</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43372</v>
       </c>
@@ -5390,24 +5599,31 @@
       <c r="C5">
         <v>70000</v>
       </c>
-      <c r="L5" s="4">
-        <v>43376</v>
-      </c>
-      <c r="M5">
-        <v>60000</v>
-      </c>
-      <c r="O5" s="5">
-        <f>SUM(O2:O4)</f>
-        <v>290000</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="H5" s="26">
+        <v>43433</v>
+      </c>
+      <c r="J5">
+        <v>50000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="4">
+        <v>43374</v>
+      </c>
+      <c r="O5">
+        <v>30000</v>
+      </c>
+      <c r="S5" s="4">
         <v>43409</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>23000</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43372</v>
       </c>
@@ -5418,31 +5634,31 @@
         <v>4000</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="5">
-        <v>20000</v>
-      </c>
-      <c r="I6">
-        <v>130000</v>
-      </c>
-      <c r="J6">
-        <v>120000</v>
-      </c>
-      <c r="L6" s="4">
-        <v>43377</v>
-      </c>
-      <c r="M6">
-        <v>30000</v>
-      </c>
-      <c r="Q6" s="4">
+        <v>107</v>
+      </c>
+      <c r="H6" s="26">
+        <v>43433</v>
+      </c>
+      <c r="I6" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N6" s="4">
+        <v>43376</v>
+      </c>
+      <c r="O6">
+        <v>60000</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="S6" s="4">
         <v>43410</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43390</v>
       </c>
@@ -5450,32 +5666,34 @@
         <v>71694</v>
       </c>
       <c r="C7">
-        <f>O14</f>
         <v>279500</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7">
+        <v>132</v>
+      </c>
+      <c r="H7" s="26">
+        <v>43433</v>
+      </c>
+      <c r="I7" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N7" s="4">
+        <v>43377</v>
+      </c>
+      <c r="O7">
+        <v>30000</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="S7" s="4">
+        <v>43412</v>
+      </c>
+      <c r="T7">
         <v>100000</v>
       </c>
-      <c r="J7">
-        <v>100000</v>
-      </c>
-      <c r="L7" s="4">
-        <v>43378</v>
-      </c>
-      <c r="M7">
-        <v>8000</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>43412</v>
-      </c>
-      <c r="R7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43390</v>
       </c>
@@ -5483,295 +5701,450 @@
         <v>63700</v>
       </c>
       <c r="C8">
-        <f>S11</f>
         <v>266725</v>
       </c>
-      <c r="J8">
-        <v>70000</v>
-      </c>
-      <c r="L8" s="4">
-        <v>43379</v>
-      </c>
-      <c r="M8">
-        <v>45000</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="26">
+        <v>43433</v>
+      </c>
+      <c r="I8" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N8" s="4">
+        <v>43378</v>
+      </c>
+      <c r="O8">
+        <v>8000</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="S8" s="4">
         <v>43412</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43397</v>
       </c>
       <c r="B9">
         <v>74590</v>
       </c>
-      <c r="L9" s="4">
-        <v>43381</v>
-      </c>
-      <c r="M9">
-        <v>30000</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="C9">
+        <v>169000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="26">
+        <v>43433</v>
+      </c>
+      <c r="I9" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="4">
+        <v>43379</v>
+      </c>
+      <c r="O9">
+        <v>45000</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="S9" s="4">
         <v>43418</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43397</v>
       </c>
       <c r="B10">
         <v>66900</v>
       </c>
-      <c r="L10" s="4">
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="26">
+        <v>43433</v>
+      </c>
+      <c r="I10" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="4">
         <v>43381</v>
       </c>
-      <c r="M10">
-        <v>35000</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="O10">
+        <v>30000</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="S10" s="4">
         <v>43419</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>66725</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11">
         <v>22000</v>
       </c>
-      <c r="L11" s="4">
-        <v>43386</v>
-      </c>
-      <c r="M11">
+      <c r="H11" s="26">
+        <v>43434</v>
+      </c>
+      <c r="I11" s="27">
         <v>10000</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5">
-        <f>SUM(R2:R10)</f>
-        <v>446725</v>
-      </c>
-      <c r="S11" s="5">
-        <f>R11-T4</f>
-        <v>266725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="N11" s="4">
+        <v>43381</v>
+      </c>
+      <c r="O11">
+        <v>35000</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="S11" s="4"/>
+      <c r="U11">
+        <v>90000</v>
+      </c>
+      <c r="W11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12">
         <v>30984</v>
       </c>
-      <c r="L12" s="4">
-        <v>43387</v>
-      </c>
-      <c r="M12">
-        <v>25000</v>
-      </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="H12" s="26">
+        <v>43434</v>
+      </c>
+      <c r="I12" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="4">
+        <v>43386</v>
+      </c>
+      <c r="O12">
+        <v>10000</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="U12">
+        <v>90000</v>
+      </c>
+      <c r="W12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43403</v>
       </c>
       <c r="B13">
         <v>89499</v>
       </c>
-      <c r="L13" s="4">
-        <v>43388</v>
-      </c>
-      <c r="M13">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="H13" s="26">
+        <v>43434</v>
+      </c>
+      <c r="I13" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N13" s="4">
+        <v>43387</v>
+      </c>
+      <c r="O13">
+        <v>25000</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T13" s="5">
+        <f>SUM(T2:T10)</f>
+        <v>446725</v>
+      </c>
+      <c r="U13" s="5">
+        <f>SUM(U11:U12)</f>
+        <v>180000</v>
+      </c>
+      <c r="V13" s="8">
+        <f>T13-U13</f>
+        <v>266725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43403</v>
       </c>
       <c r="B14">
         <v>104969</v>
       </c>
-      <c r="L14" s="4">
-        <v>43391</v>
-      </c>
-      <c r="M14">
-        <v>15000</v>
-      </c>
-      <c r="O14" s="5">
-        <f>M15-O5</f>
-        <v>279500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="H14" s="26">
+        <v>43435</v>
+      </c>
+      <c r="I14" s="27">
+        <v>3000</v>
+      </c>
+      <c r="N14" s="4">
+        <v>43388</v>
+      </c>
+      <c r="O14">
+        <v>31500</v>
+      </c>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15">
         <v>57000</v>
       </c>
-      <c r="M15" s="5">
-        <f>SUM(M1:M14)</f>
-        <v>569500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="H15" s="26">
+        <v>43438</v>
+      </c>
+      <c r="I15" s="27">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="4">
+        <v>43391</v>
+      </c>
+      <c r="O15">
+        <v>15000</v>
+      </c>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>11000</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="H16" s="26">
+        <v>43438</v>
+      </c>
+      <c r="I16" s="27">
+        <v>70000</v>
+      </c>
+      <c r="P16">
+        <v>120000</v>
+      </c>
+      <c r="R16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>11000</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="H17" s="26">
+        <v>43440</v>
+      </c>
+      <c r="I17" s="27">
+        <v>10000</v>
+      </c>
+      <c r="P17">
+        <v>100000</v>
+      </c>
+      <c r="R17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18">
         <v>22000</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="H18" s="26">
+        <v>43441</v>
+      </c>
+      <c r="I18" s="27">
+        <v>50000</v>
+      </c>
+      <c r="P18">
+        <v>70000</v>
+      </c>
+      <c r="R18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43428</v>
       </c>
       <c r="B19">
         <v>76700</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="H19" s="26">
+        <v>43443</v>
+      </c>
+      <c r="I19" s="27">
+        <v>4000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>286</v>
+      </c>
+      <c r="O19" s="6">
+        <f>SUM(O2:O15)</f>
+        <v>569500</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(P16:P18)</f>
+        <v>290000</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>O19-P19</f>
+        <v>279500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43428</v>
       </c>
       <c r="B20">
         <v>74000</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="H20" s="26">
+        <v>43444</v>
+      </c>
+      <c r="J20">
+        <v>50000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>17000</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="B22" s="9">
-        <f>SUM(B2:B21)</f>
-        <v>1067196</v>
-      </c>
-      <c r="C22" s="13">
-        <f>SUM(C2:C8)</f>
-        <v>654225</v>
-      </c>
-      <c r="E22" s="8">
-        <f>B22-C22 +F2</f>
-        <v>482971</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28">
-        <v>6300</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <f>A28*B28</f>
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29">
+      <c r="H21" s="26">
+        <v>43448</v>
+      </c>
+      <c r="I21" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="26">
+        <v>43448</v>
+      </c>
+      <c r="I22" s="27">
         <v>8000</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:C33" si="0">A29*B29</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30">
-        <v>9000</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
-        <v>11000</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32">
-        <v>15990</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>15990</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>11000</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34">
-        <f>SUM(C28:C33)</f>
-        <v>135390</v>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23">
+        <v>82800</v>
+      </c>
+      <c r="H23" s="26">
+        <v>43449</v>
+      </c>
+      <c r="J23">
+        <v>35000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24">
+        <v>53000</v>
+      </c>
+      <c r="H24" s="26">
+        <v>43449</v>
+      </c>
+      <c r="I24" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <f>SUM(B2:B24)</f>
+        <v>1252996</v>
+      </c>
+      <c r="C25" s="13">
+        <f>SUM(C2:C10)</f>
+        <v>825225</v>
+      </c>
+      <c r="E25" s="8">
+        <f>B25-C25 +F2</f>
+        <v>497771</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="26">
+        <v>43449</v>
+      </c>
+      <c r="I25" s="27">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H26" s="26">
+        <v>43452</v>
+      </c>
+      <c r="I26" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H27" s="26">
+        <v>43452</v>
+      </c>
+      <c r="I27" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I28" s="28">
+        <f>SUM(I2:I27)</f>
+        <v>304000</v>
+      </c>
+      <c r="J28" s="6">
+        <f>SUM(J2:J27)</f>
+        <v>135000</v>
+      </c>
+      <c r="K28" s="29">
+        <f>I28-J28</f>
+        <v>169000</v>
       </c>
     </row>
   </sheetData>
@@ -5780,14 +6153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -5801,9 +6174,9 @@
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>53</v>
@@ -5812,26 +6185,26 @@
         <v>39</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>230</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5854,7 +6227,7 @@
         <v>18990</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I2" s="9">
         <f>C2+500</f>
@@ -5865,9 +6238,9 @@
         <v>28980</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5890,7 +6263,7 @@
         <v>15990</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I6" si="2">C3+500</f>
@@ -5901,9 +6274,9 @@
         <v>25254</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5926,7 +6299,7 @@
         <v>12000</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="2"/>
@@ -5937,9 +6310,9 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5962,7 +6335,7 @@
         <v>16000</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="2"/>
@@ -5973,9 +6346,9 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5998,7 +6371,7 @@
         <v>10000</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="2"/>
@@ -6009,9 +6382,9 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6034,7 +6407,7 @@
         <v>11200</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I7" s="9">
         <f>C7</f>
@@ -6045,7 +6418,7 @@
         <v>11985</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
         <v>137000</v>
@@ -6062,14 +6435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -6080,7 +6453,7 @@
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -6106,7 +6479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43358</v>
       </c>
@@ -6130,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43345</v>
       </c>
@@ -6145,7 +6518,7 @@
         <v>44900</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="4">
         <v>43381</v>
@@ -6157,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>43345</v>
       </c>
@@ -6177,7 +6550,7 @@
         <v>13872</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43358</v>
       </c>
@@ -6202,7 +6575,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43365</v>
       </c>
@@ -6231,7 +6604,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43365</v>
       </c>
@@ -6256,7 +6629,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43367</v>
       </c>
@@ -6282,7 +6655,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43372</v>
       </c>
@@ -6290,14 +6663,14 @@
         <v>43408</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <f>6300*4</f>
         <v>25200</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9">
         <v>25200</v>
@@ -6311,7 +6684,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43372</v>
       </c>
@@ -6337,7 +6710,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43372</v>
       </c>
@@ -6363,13 +6736,13 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5">
         <v>6300</v>
@@ -6386,7 +6759,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43367</v>
       </c>
@@ -6411,7 +6784,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43380</v>
       </c>
@@ -6419,7 +6792,7 @@
         <v>43426</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <f>6300*4</f>
@@ -6430,7 +6803,7 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K14" s="11">
         <v>105000</v>
@@ -6441,7 +6814,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43380</v>
       </c>
@@ -6460,7 +6833,7 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K15" s="11">
         <v>111745</v>
@@ -6471,7 +6844,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43380</v>
       </c>
@@ -6490,7 +6863,7 @@
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -6505,7 +6878,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>43419</v>
       </c>
@@ -6530,12 +6903,12 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>43438</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <f>6300*6</f>
@@ -6546,7 +6919,7 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K18" s="11">
         <v>15000</v>
@@ -6561,12 +6934,12 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <v>43408</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19">
         <v>9720</v>
@@ -6576,7 +6949,7 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" s="11">
         <v>10000</v>
@@ -6587,14 +6960,14 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H20" s="8">
         <f>SUM(H2:H19)</f>
         <v>239418</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K20" s="11">
         <v>100000</v>
@@ -6605,10 +6978,10 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K21" s="11">
         <v>32000</v>
@@ -6619,10 +6992,10 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" s="11">
         <v>22000</v>
@@ -6633,10 +7006,10 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K23" s="11">
         <v>20000</v>
@@ -6647,10 +7020,10 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K24" s="11">
         <v>10000</v>
@@ -6661,7 +7034,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="8">
@@ -6681,40 +7054,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>400000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <f>SUM(B2:B3)</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +7095,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6730,7 +7103,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6738,7 +7111,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6746,7 +7119,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6754,13 +7127,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>SUM(B6:B10)</f>
         <v>290000</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -6769,22 +7142,22 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>100000</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6792,16 +7165,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>100000</v>
@@ -6812,18 +7185,18 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>100000</v>
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>50000</v>
@@ -6833,13 +7206,13 @@
         <v>43378</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21">
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -6851,13 +7224,13 @@
         <v>43379</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>85000</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <f>SUM(B17:B22)</f>
         <v>350000</v>
@@ -6873,9 +7246,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="13">
         <f>B23+E19</f>
@@ -6892,19 +7265,19 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F25" s="11"/>
       <c r="I25" s="4">
         <v>43383</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" s="11"/>
       <c r="I26" s="4">
         <v>43381</v>
@@ -6916,7 +7289,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="F27" s="11"/>
@@ -6924,13 +7297,13 @@
         <v>43383</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="F28" s="11"/>
@@ -6939,13 +7312,13 @@
         <v>211800</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K31" s="11"/>
     </row>
@@ -6955,14 +7328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -6970,29 +7343,29 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>24000</v>
@@ -7008,12 +7381,12 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>11000</v>
@@ -7028,7 +7401,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7045,12 +7418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>13000</v>
@@ -7062,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7079,12 +7452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>23000</v>
@@ -7097,7 +7470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7114,13 +7487,13 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8">
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7134,13 +7507,13 @@
         <v>8639</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9">
         <v>15990</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7157,18 +7530,18 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J10">
         <v>13990</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>16000</v>
@@ -7180,13 +7553,13 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J11">
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7203,18 +7576,18 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J12">
         <v>11985</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <v>8000</v>
@@ -7226,18 +7599,18 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13">
         <v>9000</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>15990</v>
@@ -7249,7 +7622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7266,7 +7639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -7278,7 +7651,7 @@
         <v>14390</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -7290,12 +7663,12 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>24000</v>
@@ -7307,12 +7680,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>15990</v>
@@ -7324,12 +7697,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20">
         <v>24000</v>
@@ -7341,12 +7714,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21">
         <v>24000</v>
@@ -7355,10 +7728,10 @@
         <v>22000</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -7375,7 +7748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -7392,12 +7765,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>33985</v>
@@ -7409,12 +7782,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25">
         <v>26000</v>
@@ -7426,7 +7799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -7440,12 +7813,12 @@
         <v>26989</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27">
         <v>11000</v>
@@ -7457,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -7471,7 +7844,7 @@
         <v>9000</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>60</v>
@@ -7485,7 +7858,7 @@
         <v>349041.88</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>SUM(C2:C28)</f>
         <v>420934</v>
@@ -7505,39 +7878,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="22.5" customHeight="1">
+    <row r="1" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>206</v>
       </c>
       <c r="C2">
         <v>2441.5500000000002</v>
@@ -7561,12 +7934,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3">
         <v>3193.56</v>
@@ -7591,12 +7964,12 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4">
         <v>9499</v>
@@ -7621,12 +7994,12 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>7709.15</v>
@@ -7641,12 +8014,12 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6">
         <v>1333.12</v>
@@ -7670,12 +8043,12 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7">
         <v>2248.17</v>
@@ -7703,12 +8076,12 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>3082.83</v>
@@ -7735,12 +8108,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9">
         <v>3666.33</v>
@@ -7767,12 +8140,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10">
         <v>2098.4899999999998</v>
@@ -7799,12 +8172,12 @@
         <v>8639</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11">
         <v>2248.17</v>
@@ -7838,12 +8211,12 @@
         <v>53839</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12">
         <v>3666.33</v>
@@ -7873,12 +8246,12 @@
         <v>198.22</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13">
         <v>5297.63</v>
@@ -7914,12 +8287,12 @@
         <v>140.94</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14">
         <v>3106.63</v>
@@ -7943,12 +8316,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15">
         <v>4357.45</v>
@@ -7972,12 +8345,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16">
         <v>3504.32</v>
@@ -8001,12 +8374,12 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17">
         <v>1949.67</v>
@@ -8030,12 +8403,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <v>1199.71</v>
@@ -8059,12 +8432,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19">
         <v>1216.49</v>
@@ -8088,12 +8461,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>5666.16</v>
@@ -8117,12 +8490,12 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21">
         <v>1766.48</v>
@@ -8146,12 +8519,12 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22">
         <v>1649.85</v>
@@ -8181,14 +8554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -8201,7 +8574,7 @@
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="19" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:19" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
@@ -8227,10 +8600,10 @@
         <v>60</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>45</v>
@@ -8239,13 +8612,13 @@
         <v>61</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K2">
         <v>37800</v>
       </c>
@@ -8262,7 +8635,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K3">
         <v>90000</v>
       </c>
@@ -8273,70 +8646,70 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L5">
         <v>8639</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R10">
         <v>100000</v>
       </c>
       <c r="S10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R11">
         <v>90000</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R12">
         <v>37800</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R13">
         <v>53839</v>
       </c>
       <c r="S13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R14">
         <v>70901</v>
       </c>
       <c r="S14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R15">
         <v>73622</v>
       </c>
       <c r="S15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R16" s="5">
         <f>SUM(R10:R15)</f>
         <v>426162</v>

--- a/business/stock details22.xlsx
+++ b/business/stock details22.xlsx
@@ -5402,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5415,7 +5415,8 @@
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>

--- a/business/stock details22.xlsx
+++ b/business/stock details22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="14295" windowHeight="4890" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="14295" windowHeight="4890" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="card" sheetId="3" r:id="rId5"/>
     <sheet name="land_details" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
+    <sheet name="land_complete_details" sheetId="11" r:id="rId8"/>
+    <sheet name="udhar_details" sheetId="13" r:id="rId9"/>
+    <sheet name="farzi" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">card!$A$1:$P$20</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="369">
   <si>
     <t>s.no</t>
   </si>
@@ -903,15 +904,6 @@
     <t xml:space="preserve">name </t>
   </si>
   <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
     <t xml:space="preserve">mulla g </t>
   </si>
   <si>
@@ -921,18 +913,9 @@
     <t>abbas bhai</t>
   </si>
   <si>
-    <t>j l</t>
-  </si>
-  <si>
     <t>ikram_f</t>
   </si>
   <si>
-    <t>jameen</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
     <t>l1 emi</t>
   </si>
   <si>
@@ -997,6 +980,159 @@
   </si>
   <si>
     <t>home expenses</t>
+  </si>
+  <si>
+    <t>jameen mitti bharie</t>
+  </si>
+  <si>
+    <t>committee_land1</t>
+  </si>
+  <si>
+    <t>dr. sahab_land1</t>
+  </si>
+  <si>
+    <t>mulla g_land1</t>
+  </si>
+  <si>
+    <t>sameer_land1</t>
+  </si>
+  <si>
+    <t>noor alam_land1</t>
+  </si>
+  <si>
+    <t>abbas bhai_land1</t>
+  </si>
+  <si>
+    <t>jwellers_land1</t>
+  </si>
+  <si>
+    <t>loan1_land1</t>
+  </si>
+  <si>
+    <t>loan2_land1</t>
+  </si>
+  <si>
+    <t>loan3_land1</t>
+  </si>
+  <si>
+    <t>committee_land2</t>
+  </si>
+  <si>
+    <t>jwelary_land2</t>
+  </si>
+  <si>
+    <t>mehaman_land2</t>
+  </si>
+  <si>
+    <t>dr. sahab_land2</t>
+  </si>
+  <si>
+    <t>loan4_land2</t>
+  </si>
+  <si>
+    <t>loan5_land2</t>
+  </si>
+  <si>
+    <t>ikram_friend</t>
+  </si>
+  <si>
+    <t>marriage expenses</t>
+  </si>
+  <si>
+    <t>quium bhai</t>
+  </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>papa cc</t>
+  </si>
+  <si>
+    <t>bhiaya</t>
+  </si>
+  <si>
+    <t>ladle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return </t>
+  </si>
+  <si>
+    <t>comitte 19th March "NoEntry"</t>
+  </si>
+  <si>
+    <t>loan_papa</t>
+  </si>
+  <si>
+    <t>as per this friend dues</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>current amount</t>
+  </si>
+  <si>
+    <t>susheel bhai</t>
+  </si>
+  <si>
+    <t>cc and sara hisab karne ke baad</t>
+  </si>
+  <si>
+    <t>15 may se pehle return karna hai</t>
+  </si>
+  <si>
+    <t>june mein return karna hai</t>
+  </si>
+  <si>
+    <t>10th april tak return karna hai</t>
+  </si>
+  <si>
+    <t>rahul card loan</t>
+  </si>
+  <si>
+    <t>amol card</t>
+  </si>
+  <si>
+    <t>other details</t>
+  </si>
+  <si>
+    <t>card udar for mobile purchase</t>
+  </si>
+  <si>
+    <t>stock &amp; udhar akhlakh boss</t>
+  </si>
+  <si>
+    <t>emis details</t>
+  </si>
+  <si>
+    <t>15 lakh loan</t>
+  </si>
+  <si>
+    <t>10 lakh loan</t>
+  </si>
+  <si>
+    <t>4 lakh ka loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 * 1 lakh loan </t>
+  </si>
+  <si>
+    <t>per month EMI</t>
+  </si>
+  <si>
+    <t>date 06-may</t>
+  </si>
+  <si>
+    <t>koka ko paisa diye hai</t>
+  </si>
+  <si>
+    <t>end of this month</t>
+  </si>
+  <si>
+    <t>end of june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11th junejune </t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1155,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1216,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1112,7 +1260,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1141,6 +1289,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4081,6 +4231,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1">
+        <v>320000</v>
+      </c>
+      <c r="B1">
+        <v>130000</v>
+      </c>
+      <c r="F1">
+        <v>40000</v>
+      </c>
+      <c r="G1">
+        <v>15000</v>
+      </c>
+      <c r="I1">
+        <v>25000</v>
+      </c>
+      <c r="L1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1">
+        <v>12000</v>
+      </c>
+      <c r="N1">
+        <v>6000</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>302</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2">
+        <v>80000</v>
+      </c>
+      <c r="C2">
+        <v>80000</v>
+      </c>
+      <c r="I2">
+        <v>7000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M2">
+        <v>45000</v>
+      </c>
+      <c r="N2">
+        <v>30000</v>
+      </c>
+      <c r="R2">
+        <v>30000</v>
+      </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3">
+        <v>80000</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="I3">
+        <v>5000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M3">
+        <v>110000</v>
+      </c>
+      <c r="N3">
+        <v>85000</v>
+      </c>
+      <c r="R3">
+        <v>6000</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4">
+        <f>SUM(B1:B3)</f>
+        <v>290000</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>140000</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>150000</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>309</v>
+      </c>
+      <c r="M4">
+        <v>35000</v>
+      </c>
+      <c r="N4">
+        <v>30000</v>
+      </c>
+      <c r="R4">
+        <v>18000</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="I5">
+        <v>20000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M5">
+        <v>5000</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="R5">
+        <v>22553</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="I6">
+        <v>22553</v>
+      </c>
+      <c r="L6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6">
+        <v>6100</v>
+      </c>
+      <c r="N6">
+        <v>4100</v>
+      </c>
+      <c r="R6" s="27">
+        <f>SUM(R2:R5)</f>
+        <v>76553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="I7" s="2">
+        <f>SUM(I1:I6)</f>
+        <v>81553</v>
+      </c>
+      <c r="L7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M7">
+        <v>34000</v>
+      </c>
+      <c r="N7">
+        <v>27000</v>
+      </c>
+      <c r="R7">
+        <v>1400</v>
+      </c>
+      <c r="S7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="L8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8">
+        <v>150000</v>
+      </c>
+      <c r="N8">
+        <v>150000</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="L9" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9">
+        <v>100000</v>
+      </c>
+      <c r="N9">
+        <v>100000</v>
+      </c>
+      <c r="R9">
+        <v>1500</v>
+      </c>
+      <c r="S9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="L10" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10">
+        <v>100000</v>
+      </c>
+      <c r="N10">
+        <v>100000</v>
+      </c>
+      <c r="R10">
+        <v>25000</v>
+      </c>
+      <c r="S10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="L11" t="s">
+        <v>294</v>
+      </c>
+      <c r="M11">
+        <v>200000</v>
+      </c>
+      <c r="N11">
+        <v>200000</v>
+      </c>
+      <c r="R11" s="8">
+        <f>SUM(R6:R10)</f>
+        <v>105453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="L12" t="s">
+        <v>295</v>
+      </c>
+      <c r="M12">
+        <v>707000</v>
+      </c>
+      <c r="N12">
+        <v>707000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="M13" s="2">
+        <f>SUM(M1:M12)</f>
+        <v>1504100</v>
+      </c>
+      <c r="N13" s="8">
+        <f>SUM(N1:N12)</f>
+        <v>1444100</v>
+      </c>
+      <c r="O13" s="27">
+        <f>SUM(N8:N12)</f>
+        <v>1257000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K128"/>
@@ -6776,7 +7215,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7211,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7713,7 +8152,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7987,7 +8426,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8230,21 +8669,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" customHeight="1">
+    <row r="1" spans="1:26" ht="19.5" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>50</v>
       </c>
@@ -8260,297 +8702,473 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="I1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>285</v>
       </c>
       <c r="B2">
         <v>5250000</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
+      <c r="D2" s="28" t="s">
+        <v>319</v>
       </c>
       <c r="E2">
         <v>462000</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="J2">
+        <v>421215</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>161000</v>
+      </c>
+      <c r="P2">
+        <v>1100</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" t="s">
+        <v>292</v>
+      </c>
+      <c r="U2">
         <v>150000</v>
       </c>
-      <c r="L2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M2">
+      <c r="W2" t="s">
+        <v>296</v>
+      </c>
+      <c r="X2">
         <v>32385</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>286</v>
       </c>
       <c r="B3">
         <v>548000</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="D3" s="28" t="s">
+        <v>320</v>
       </c>
       <c r="E3">
         <v>700000</v>
       </c>
-      <c r="I3" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3">
+      <c r="L3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M3">
+        <v>284989</v>
+      </c>
+      <c r="P3">
+        <v>20000</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>293</v>
+      </c>
+      <c r="U3">
         <v>100000</v>
       </c>
-      <c r="L3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M3">
+      <c r="W3" t="s">
+        <v>297</v>
+      </c>
+      <c r="X3">
         <v>21843</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>287</v>
       </c>
       <c r="B4">
         <v>200000</v>
       </c>
-      <c r="D4" t="s">
-        <v>295</v>
+      <c r="D4" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="E4">
         <v>150000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>344</v>
+      </c>
+      <c r="M4">
+        <v>230000</v>
+      </c>
+      <c r="P4">
+        <v>16000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
         <v>265</v>
       </c>
-      <c r="J4">
+      <c r="U4">
         <v>100000</v>
       </c>
-      <c r="L4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4">
+      <c r="W4" t="s">
+        <v>298</v>
+      </c>
+      <c r="X4">
         <v>19394</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>288</v>
       </c>
       <c r="B5">
         <v>20000</v>
       </c>
-      <c r="D5" t="s">
-        <v>296</v>
+      <c r="D5" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="E5">
         <v>100000</v>
       </c>
-      <c r="I5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J5">
+      <c r="M5" s="2">
+        <f>SUM(M2:M4)</f>
+        <v>675989</v>
+      </c>
+      <c r="N5" s="6">
+        <f>M5-J2</f>
+        <v>254774</v>
+      </c>
+      <c r="P5">
+        <v>19900</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>338</v>
+      </c>
+      <c r="T5" t="s">
+        <v>294</v>
+      </c>
+      <c r="U5">
         <v>200000</v>
       </c>
-      <c r="L5" t="s">
-        <v>305</v>
-      </c>
-      <c r="M5">
+      <c r="W5" t="s">
+        <v>299</v>
+      </c>
+      <c r="X5">
         <v>2610</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:26">
       <c r="B6" s="2">
         <f>SUM(B2:B5)</f>
         <v>6018000</v>
       </c>
-      <c r="D6" t="s">
-        <v>265</v>
+      <c r="D6" s="28" t="s">
+        <v>323</v>
       </c>
       <c r="E6">
         <v>100000</v>
       </c>
-      <c r="I6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J6">
+      <c r="P6">
+        <v>20000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>338</v>
+      </c>
+      <c r="T6" t="s">
+        <v>295</v>
+      </c>
+      <c r="U6">
         <v>707000</v>
       </c>
-      <c r="M6" s="12">
-        <f>SUM(M2:M5)</f>
+      <c r="X6" s="12">
+        <f>SUM(X2:X5)</f>
         <v>76232</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>289</v>
       </c>
       <c r="B7">
         <v>100000</v>
       </c>
-      <c r="D7" t="s">
-        <v>297</v>
+      <c r="D7" s="28" t="s">
+        <v>324</v>
       </c>
       <c r="E7">
         <v>200000</v>
       </c>
-      <c r="J7" s="8">
-        <f>SUM(J2:J6)</f>
+      <c r="P7">
+        <v>20000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>339</v>
+      </c>
+      <c r="U7" s="8">
+        <f>SUM(U2:U6)</f>
         <v>1257000</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>290</v>
       </c>
       <c r="B8">
         <v>100000</v>
       </c>
-      <c r="D8" t="s">
-        <v>298</v>
+      <c r="D8" s="28" t="s">
+        <v>325</v>
       </c>
       <c r="E8">
         <v>280000</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="F8" s="2">
+        <f>SUM(E2:E8)</f>
+        <v>1992000</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" s="8">
+        <f>E18-N5</f>
+        <v>714864</v>
+      </c>
+      <c r="P8">
+        <v>20000</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B9">
         <v>100000</v>
       </c>
-      <c r="D9" t="s">
-        <v>292</v>
+      <c r="D9" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="E9">
-        <v>1472262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>160000</v>
+      </c>
+      <c r="P9">
+        <v>19500</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="B10" s="2">
         <f>SUM(B6:B9)</f>
         <v>6318000</v>
       </c>
-      <c r="D10" t="s">
-        <v>293</v>
+      <c r="D10" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="E10">
+        <v>40000</v>
+      </c>
+      <c r="P10">
+        <v>49500</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="D11" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11">
+        <v>40000</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="P11">
+        <v>25000</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="D12" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12">
+        <v>50000</v>
+      </c>
+      <c r="F12" s="2">
+        <f>SUM(E9:E12)</f>
+        <v>290000</v>
+      </c>
+      <c r="G12" s="12">
+        <f>F8+F12</f>
+        <v>2282000</v>
+      </c>
+      <c r="P12" s="2">
+        <f>SUM(P2:P11)</f>
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="D13" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13">
+        <v>1472262</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8">
+        <f>B10-G12</f>
+        <v>4036000</v>
+      </c>
+      <c r="P13">
+        <v>50000</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="D14" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14">
         <v>994100</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="D11" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11">
+      <c r="P14" s="5">
+        <f>P12-P13</f>
+        <v>161000</v>
+      </c>
+      <c r="W14" t="s">
+        <v>300</v>
+      </c>
+      <c r="X14">
+        <v>60000</v>
+      </c>
+      <c r="Y14">
+        <v>25000</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="D15" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15">
         <v>400000</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="D12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12">
-        <v>707000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="D13" t="s">
+      <c r="F15" s="10"/>
+      <c r="W15" t="s">
         <v>301</v>
       </c>
-      <c r="E13">
+      <c r="X15">
+        <v>5000</v>
+      </c>
+      <c r="Y15">
+        <v>25000</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="D16" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="10">
         <v>100000</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>5665362</v>
-      </c>
-      <c r="L14" t="s">
-        <v>306</v>
-      </c>
-      <c r="M14">
-        <v>60000</v>
-      </c>
-      <c r="N14">
-        <v>25000</v>
-      </c>
-      <c r="O14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="L15" t="s">
-        <v>307</v>
-      </c>
-      <c r="M15">
-        <v>5000</v>
-      </c>
-      <c r="N15">
-        <v>25000</v>
-      </c>
-      <c r="O15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="L16" t="s">
-        <v>308</v>
-      </c>
-      <c r="M16">
+      <c r="W16" t="s">
+        <v>302</v>
+      </c>
+      <c r="X16">
         <v>2000</v>
       </c>
-      <c r="N16">
+      <c r="Y16">
         <v>2000</v>
       </c>
-      <c r="O16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14">
-      <c r="L17" t="s">
-        <v>309</v>
-      </c>
-      <c r="M17">
+      <c r="Z16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25">
+      <c r="D17" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="2">
+        <f>SUM(E13:E17)</f>
+        <v>3066362</v>
+      </c>
+      <c r="W17" t="s">
+        <v>303</v>
+      </c>
+      <c r="X17">
         <v>2000</v>
       </c>
-      <c r="N17">
-        <f>SUM(N14:N16)</f>
+      <c r="Y17">
+        <f>SUM(Y14:Y16)</f>
         <v>52000</v>
       </c>
     </row>
-    <row r="18" spans="4:14">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="L18" t="s">
-        <v>310</v>
-      </c>
-      <c r="M18">
+    <row r="18" spans="4:25">
+      <c r="D18" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="8">
+        <f>G13-F17</f>
+        <v>969638</v>
+      </c>
+      <c r="W18" t="s">
+        <v>304</v>
+      </c>
+      <c r="X18">
         <v>6200</v>
       </c>
     </row>
-    <row r="19" spans="4:14">
+    <row r="19" spans="4:25">
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="M19">
-        <f>SUM(M14:M18)</f>
+      <c r="E19" s="2">
+        <f>SUM(E2:E18)</f>
+        <v>6318000</v>
+      </c>
+      <c r="X19">
+        <f>SUM(X14:X18)</f>
         <v>75200</v>
       </c>
-      <c r="N19" s="12">
-        <f>M19-N17</f>
+      <c r="Y19" s="12">
+        <f>X19-Y17</f>
         <v>23200</v>
       </c>
     </row>
-    <row r="20" spans="4:14">
+    <row r="20" spans="4:25">
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
@@ -8561,287 +9179,339 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1">
-        <v>320000</v>
-      </c>
-      <c r="B1">
-        <v>130000</v>
-      </c>
-      <c r="F1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2">
+        <v>59000</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>59000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>65000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">B3-C3</f>
+        <v>65000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6">
+        <v>100000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
         <v>40000</v>
       </c>
-      <c r="G1">
-        <v>15000</v>
-      </c>
-      <c r="I1">
+      <c r="D7">
+        <f>B7-C7</f>
+        <v>40000</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7">
+        <v>40000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8">
         <v>25000</v>
       </c>
-      <c r="L1" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1">
-        <v>12000</v>
-      </c>
-      <c r="N1">
-        <v>6000</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>308</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="B2">
+      <c r="D8">
+        <f>B8-C8</f>
+        <v>25000</v>
+      </c>
+      <c r="F8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9">
+        <v>120000</v>
+      </c>
+      <c r="D9">
+        <f>B9-C9</f>
+        <v>120000</v>
+      </c>
+      <c r="F9">
+        <v>90000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10">
         <v>80000</v>
       </c>
-      <c r="C2">
+      <c r="D10">
+        <f>B10-C10</f>
         <v>80000</v>
       </c>
-      <c r="I2">
-        <v>7000</v>
-      </c>
-      <c r="L2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M2">
-        <v>45000</v>
-      </c>
-      <c r="N2">
-        <v>30000</v>
-      </c>
-      <c r="R2">
-        <v>30000</v>
-      </c>
-      <c r="S2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="B3">
-        <v>80000</v>
-      </c>
-      <c r="C3">
-        <v>60000</v>
-      </c>
-      <c r="I3">
-        <v>5000</v>
-      </c>
-      <c r="L3" t="s">
-        <v>314</v>
-      </c>
-      <c r="M3">
-        <v>110000</v>
-      </c>
-      <c r="N3">
-        <v>85000</v>
-      </c>
-      <c r="R3">
-        <v>6000</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4">
-        <f>SUM(B1:B3)</f>
-        <v>290000</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)</f>
-        <v>140000</v>
-      </c>
-      <c r="D4">
-        <f>B4-C4</f>
-        <v>150000</v>
-      </c>
-      <c r="I4">
-        <v>2000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>315</v>
-      </c>
-      <c r="M4">
-        <v>35000</v>
-      </c>
-      <c r="N4">
-        <v>30000</v>
-      </c>
-      <c r="R4">
-        <v>18000</v>
-      </c>
-      <c r="S4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="I5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="5">
+        <f>SUM(D2:D10)</f>
+        <v>679000</v>
+      </c>
+      <c r="F11" s="5">
+        <f>SUM(F2:F10)</f>
+        <v>479000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13">
+        <f>102754+130992</f>
+        <v>233746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14">
+        <v>197000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B13-B14</f>
+        <v>36746</v>
+      </c>
+      <c r="D15">
+        <v>36746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="8">
+        <f>SUM(D11:D15)</f>
+        <v>715746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21">
         <v>20000</v>
       </c>
-      <c r="L5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M5">
-        <v>5000</v>
-      </c>
-      <c r="N5">
-        <v>5000</v>
-      </c>
-      <c r="R5">
-        <v>22553</v>
-      </c>
-      <c r="S5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="I6">
-        <v>22553</v>
-      </c>
-      <c r="L6" t="s">
-        <v>317</v>
-      </c>
-      <c r="M6">
-        <v>6100</v>
-      </c>
-      <c r="N6">
-        <v>4100</v>
-      </c>
-      <c r="R6" s="27">
-        <f>SUM(R2:R5)</f>
-        <v>76553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="I7" s="2">
-        <f>SUM(I1:I6)</f>
-        <v>81553</v>
-      </c>
-      <c r="L7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M7">
-        <v>34000</v>
-      </c>
-      <c r="N7">
-        <v>27000</v>
-      </c>
-      <c r="R7">
-        <v>1400</v>
-      </c>
-      <c r="S7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="L8" t="s">
-        <v>295</v>
-      </c>
-      <c r="M8">
-        <v>150000</v>
-      </c>
-      <c r="N8">
-        <v>150000</v>
-      </c>
-      <c r="R8">
-        <v>1000</v>
-      </c>
-      <c r="S8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="L9" t="s">
-        <v>296</v>
-      </c>
-      <c r="M9">
-        <v>100000</v>
-      </c>
-      <c r="N9">
-        <v>100000</v>
-      </c>
-      <c r="R9">
-        <v>1500</v>
-      </c>
-      <c r="S9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="L10" t="s">
-        <v>265</v>
-      </c>
-      <c r="M10">
-        <v>100000</v>
-      </c>
-      <c r="N10">
-        <v>100000</v>
-      </c>
-      <c r="R10">
-        <v>25000</v>
-      </c>
-      <c r="S10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="L11" t="s">
-        <v>297</v>
-      </c>
-      <c r="M11">
-        <v>200000</v>
-      </c>
-      <c r="N11">
-        <v>200000</v>
-      </c>
-      <c r="R11" s="8">
-        <f>SUM(R6:R10)</f>
-        <v>105453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="L12" t="s">
-        <v>299</v>
-      </c>
-      <c r="M12">
-        <v>707000</v>
-      </c>
-      <c r="N12">
-        <v>707000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="M13" s="2">
-        <f>SUM(M1:M12)</f>
-        <v>1504100</v>
-      </c>
-      <c r="N13" s="8">
-        <f>SUM(N1:N12)</f>
-        <v>1444100</v>
-      </c>
-      <c r="O13" s="27">
-        <f>SUM(N8:N12)</f>
-        <v>1257000</v>
-      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="8">
+        <f>SUM(B19:B22)</f>
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/business/stock details22.xlsx
+++ b/business/stock details22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="14295" windowHeight="4890" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="14295" windowHeight="4890" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -4236,7 +4236,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6176,13 +6176,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -8671,8 +8671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9181,7 +9181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
